--- a/data/pca/factorExposure/factorExposure_2013-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002068662908548714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001500604522137753</v>
+      </c>
+      <c r="C2">
+        <v>-0.03145424671339273</v>
+      </c>
+      <c r="D2">
+        <v>0.007783699476030174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002642209295309705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005845330488040296</v>
+      </c>
+      <c r="C4">
+        <v>-0.08189725743327551</v>
+      </c>
+      <c r="D4">
+        <v>0.08058449873342144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004833883667657519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01310145480003154</v>
+      </c>
+      <c r="C6">
+        <v>-0.1048257738382177</v>
+      </c>
+      <c r="D6">
+        <v>0.04446974904661772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001651040849036725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00466724368101458</v>
+      </c>
+      <c r="C7">
+        <v>-0.05117791071707095</v>
+      </c>
+      <c r="D7">
+        <v>0.03962878546388332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002757832583117011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006013837901900721</v>
+      </c>
+      <c r="C8">
+        <v>-0.0379198137367339</v>
+      </c>
+      <c r="D8">
+        <v>0.04163655929887489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005649214177250125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003727751252513688</v>
+      </c>
+      <c r="C9">
+        <v>-0.06564591836973817</v>
+      </c>
+      <c r="D9">
+        <v>0.06981667348983185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004277770433183635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.006215466257579655</v>
+      </c>
+      <c r="C10">
+        <v>-0.09359159748201033</v>
+      </c>
+      <c r="D10">
+        <v>-0.2162889738746468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0058907783768533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004712439379191039</v>
+      </c>
+      <c r="C11">
+        <v>-0.07747281393152251</v>
+      </c>
+      <c r="D11">
+        <v>0.06451003662554561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001038044600719531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003570925264436185</v>
+      </c>
+      <c r="C12">
+        <v>-0.06187987203814035</v>
+      </c>
+      <c r="D12">
+        <v>0.04626633603416581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003053133358639381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008090068796794102</v>
+      </c>
+      <c r="C13">
+        <v>-0.0664433159603193</v>
+      </c>
+      <c r="D13">
+        <v>0.07882821947685272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003987151372132945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001651316845036554</v>
+      </c>
+      <c r="C14">
+        <v>-0.04634533230469199</v>
+      </c>
+      <c r="D14">
+        <v>0.0186542023998256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002942134605696845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005710804144928702</v>
+      </c>
+      <c r="C15">
+        <v>-0.03627298358598587</v>
+      </c>
+      <c r="D15">
+        <v>0.04683788672887839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003473315242219861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00486859013969296</v>
+      </c>
+      <c r="C16">
+        <v>-0.06357993934492641</v>
+      </c>
+      <c r="D16">
+        <v>0.05045396642385645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001548570457081831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008955612264853615</v>
+      </c>
+      <c r="C20">
+        <v>-0.06378226200501831</v>
+      </c>
+      <c r="D20">
+        <v>0.05723859411611106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003384975057090062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009424860476916952</v>
+      </c>
+      <c r="C21">
+        <v>-0.02455554369448687</v>
+      </c>
+      <c r="D21">
+        <v>0.03853984000632287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01717405382467429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.008237150573331752</v>
+      </c>
+      <c r="C22">
+        <v>-0.08373185143017085</v>
+      </c>
+      <c r="D22">
+        <v>0.1039427588991131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01743196514075834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007996343056100787</v>
+      </c>
+      <c r="C23">
+        <v>-0.08631205536958773</v>
+      </c>
+      <c r="D23">
+        <v>0.101413107508131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004552076113861842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004187053759096562</v>
+      </c>
+      <c r="C24">
+        <v>-0.07018358669803931</v>
+      </c>
+      <c r="D24">
+        <v>0.05908041796397999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005590218063307557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002634664958185438</v>
+      </c>
+      <c r="C25">
+        <v>-0.0756182513650909</v>
+      </c>
+      <c r="D25">
+        <v>0.0623016449807158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007050309502778295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003449144942337997</v>
+      </c>
+      <c r="C26">
+        <v>-0.04278723571468666</v>
+      </c>
+      <c r="D26">
+        <v>0.01688059350907702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005181288266943772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0002278519392245661</v>
+      </c>
+      <c r="C28">
+        <v>-0.1425848886872833</v>
+      </c>
+      <c r="D28">
+        <v>-0.2942013073638596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001985462150595045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003305221921608273</v>
+      </c>
+      <c r="C29">
+        <v>-0.04978710382649593</v>
+      </c>
+      <c r="D29">
+        <v>0.02454974555991324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006185151161404586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008602508452183039</v>
+      </c>
+      <c r="C30">
+        <v>-0.1293629556650656</v>
+      </c>
+      <c r="D30">
+        <v>0.1169907714715054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002313068802152526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.005978412905391243</v>
+      </c>
+      <c r="C31">
+        <v>-0.04661372412677681</v>
+      </c>
+      <c r="D31">
+        <v>0.0377742835547168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008217614298256367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003539366393107747</v>
+      </c>
+      <c r="C32">
+        <v>-0.0425032599812752</v>
+      </c>
+      <c r="D32">
+        <v>0.01417134910083288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004479240947560902</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007649231848317999</v>
+      </c>
+      <c r="C33">
+        <v>-0.08079409038256317</v>
+      </c>
+      <c r="D33">
+        <v>0.07666933189738591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005915500858082691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.00347558187442844</v>
+      </c>
+      <c r="C34">
+        <v>-0.05532513468835586</v>
+      </c>
+      <c r="D34">
+        <v>0.04286454011109204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0044583081547057</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005101571499773913</v>
+      </c>
+      <c r="C35">
+        <v>-0.04053148154532737</v>
+      </c>
+      <c r="D35">
+        <v>0.02084303486880554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00575726648972945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001511000115148411</v>
+      </c>
+      <c r="C36">
+        <v>-0.02638634740545819</v>
+      </c>
+      <c r="D36">
+        <v>0.01744883354222592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002200560041114762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008960259163181189</v>
+      </c>
+      <c r="C38">
+        <v>-0.03436227995169083</v>
+      </c>
+      <c r="D38">
+        <v>0.03378582444748837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01563876576953616</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001615165430964891</v>
+      </c>
+      <c r="C39">
+        <v>-0.1091292205149684</v>
+      </c>
+      <c r="D39">
+        <v>0.08971912883880799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008109856236878092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002269900694853837</v>
+      </c>
+      <c r="C40">
+        <v>-0.08322621743504741</v>
+      </c>
+      <c r="D40">
+        <v>0.03917441582680421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>7.145653993992559e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007312930094700095</v>
+      </c>
+      <c r="C41">
+        <v>-0.04131779050279265</v>
+      </c>
+      <c r="D41">
+        <v>0.03386817880238881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002074546912631421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00258361712886899</v>
+      </c>
+      <c r="C43">
+        <v>-0.05162536559984268</v>
+      </c>
+      <c r="D43">
+        <v>0.02728101882230774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005019814305924917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003203915890554256</v>
+      </c>
+      <c r="C44">
+        <v>-0.1036182043726733</v>
+      </c>
+      <c r="D44">
+        <v>0.08678641882987921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00257534402217685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002485164909627808</v>
+      </c>
+      <c r="C46">
+        <v>-0.03396886178143567</v>
+      </c>
+      <c r="D46">
+        <v>0.03409668517957274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002361630783405378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002946804701113969</v>
+      </c>
+      <c r="C47">
+        <v>-0.04088828481049916</v>
+      </c>
+      <c r="D47">
+        <v>0.03094468665709669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003414913455917253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006421865634550464</v>
+      </c>
+      <c r="C48">
+        <v>-0.03198687292464562</v>
+      </c>
+      <c r="D48">
+        <v>0.02228407143965588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01577040657655899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0135726462494754</v>
+      </c>
+      <c r="C49">
+        <v>-0.1625717943907888</v>
+      </c>
+      <c r="D49">
+        <v>0.04867265315386484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0002866132406836999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003770783608648573</v>
+      </c>
+      <c r="C50">
+        <v>-0.04270249873907758</v>
+      </c>
+      <c r="D50">
+        <v>0.03831333142685225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002996109534250829</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004000556928523002</v>
+      </c>
+      <c r="C51">
+        <v>-0.01909802331500138</v>
+      </c>
+      <c r="D51">
+        <v>0.03582096084947904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0001444959953462097</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.019426644600991</v>
+      </c>
+      <c r="C53">
+        <v>-0.1621012374023235</v>
+      </c>
+      <c r="D53">
+        <v>0.06053021263834922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001498278906994602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008295799289324494</v>
+      </c>
+      <c r="C54">
+        <v>-0.05377448255292794</v>
+      </c>
+      <c r="D54">
+        <v>0.04088268418547682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005654442642669147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009149710345666503</v>
+      </c>
+      <c r="C55">
+        <v>-0.1023168122050296</v>
+      </c>
+      <c r="D55">
+        <v>0.0588586793260197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002145934748833858</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01821017223804522</v>
+      </c>
+      <c r="C56">
+        <v>-0.1661234029675282</v>
+      </c>
+      <c r="D56">
+        <v>0.06382768194854477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009201072285571425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01930969458310989</v>
+      </c>
+      <c r="C58">
+        <v>-0.09904619731091574</v>
+      </c>
+      <c r="D58">
+        <v>0.08647399580983968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009235288244972429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008788526266831301</v>
+      </c>
+      <c r="C59">
+        <v>-0.1818889276954917</v>
+      </c>
+      <c r="D59">
+        <v>-0.2594685042120771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008812028155110237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02222694385709925</v>
+      </c>
+      <c r="C60">
+        <v>-0.2227289534740287</v>
+      </c>
+      <c r="D60">
+        <v>0.03065782520870906</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01771347853074415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002514584324250431</v>
+      </c>
+      <c r="C61">
+        <v>-0.09181032634686113</v>
+      </c>
+      <c r="D61">
+        <v>0.06682352304682448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1897622718140776</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1447929523892325</v>
+      </c>
+      <c r="C62">
+        <v>-0.06756130028318726</v>
+      </c>
+      <c r="D62">
+        <v>0.0572939327508963</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003115655926041077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006115135927463587</v>
+      </c>
+      <c r="C63">
+        <v>-0.05964404721548405</v>
+      </c>
+      <c r="D63">
+        <v>0.01990981636138631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006676500097374125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01504480442450831</v>
+      </c>
+      <c r="C64">
+        <v>-0.09492255637309809</v>
+      </c>
+      <c r="D64">
+        <v>0.0731289851697267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0002538550817158485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0168401041008381</v>
+      </c>
+      <c r="C65">
+        <v>-0.1087174918978134</v>
+      </c>
+      <c r="D65">
+        <v>0.044588156967997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01210061573622397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01152911264157527</v>
+      </c>
+      <c r="C66">
+        <v>-0.1443165831106074</v>
+      </c>
+      <c r="D66">
+        <v>0.128290105580179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001820844602589492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0147905399731145</v>
+      </c>
+      <c r="C67">
+        <v>-0.06286355129752678</v>
+      </c>
+      <c r="D67">
+        <v>0.04539168679069758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009115377388573889</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001470252120526606</v>
+      </c>
+      <c r="C68">
+        <v>-0.1269971388284305</v>
+      </c>
+      <c r="D68">
+        <v>-0.2674111759600212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003378835149627509</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.004951722109342168</v>
+      </c>
+      <c r="C69">
+        <v>-0.04502781586605158</v>
+      </c>
+      <c r="D69">
+        <v>0.04503043971377715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001228898032283563</v>
+      </c>
+      <c r="C70">
+        <v>-0.001493141689629641</v>
+      </c>
+      <c r="D70">
+        <v>0.001751641856799039</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.00405626043907395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006258040093857184</v>
+      </c>
+      <c r="C71">
+        <v>-0.1297501754431127</v>
+      </c>
+      <c r="D71">
+        <v>-0.2781529461690264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008083624465420164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01467669537292117</v>
+      </c>
+      <c r="C72">
+        <v>-0.1452219451311899</v>
+      </c>
+      <c r="D72">
+        <v>0.04436818956857452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01184120684139883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0302775332587895</v>
+      </c>
+      <c r="C73">
+        <v>-0.2837121789661128</v>
+      </c>
+      <c r="D73">
+        <v>0.05549045634313515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006089073374906115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001529498424310601</v>
+      </c>
+      <c r="C74">
+        <v>-0.1020785275113498</v>
+      </c>
+      <c r="D74">
+        <v>0.04843363624596696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006783874776972286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01006497001842318</v>
+      </c>
+      <c r="C75">
+        <v>-0.1302063990343442</v>
+      </c>
+      <c r="D75">
+        <v>0.05138801527235667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01044134181664035</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02060244535268078</v>
+      </c>
+      <c r="C76">
+        <v>-0.1405050656020119</v>
+      </c>
+      <c r="D76">
+        <v>0.0787269813121865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008550135785453846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02094264029520218</v>
+      </c>
+      <c r="C77">
+        <v>-0.1135515531924944</v>
+      </c>
+      <c r="D77">
+        <v>0.1258785857059608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0002901865614836888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01418149038923062</v>
+      </c>
+      <c r="C78">
+        <v>-0.08805829671621826</v>
+      </c>
+      <c r="D78">
+        <v>0.0685219727293703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.0265900880101483</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0358322732918334</v>
+      </c>
+      <c r="C79">
+        <v>-0.1496463747035485</v>
+      </c>
+      <c r="D79">
+        <v>0.05075674203924371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003115673155465857</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01074183650125536</v>
+      </c>
+      <c r="C80">
+        <v>-0.04369724770376323</v>
+      </c>
+      <c r="D80">
+        <v>0.02965949037671331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003089033250627302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01381939069643497</v>
+      </c>
+      <c r="C81">
+        <v>-0.1156486585793258</v>
+      </c>
+      <c r="D81">
+        <v>0.07036534071908047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.007164510246668966</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01762153105374744</v>
+      </c>
+      <c r="C82">
+        <v>-0.1344809379083682</v>
+      </c>
+      <c r="D82">
+        <v>0.05545255879893957</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.007685079365688579</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009519451957658479</v>
+      </c>
+      <c r="C83">
+        <v>-0.04923378611820543</v>
+      </c>
+      <c r="D83">
+        <v>0.05323995249885348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01379289224142586</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01224988954508407</v>
+      </c>
+      <c r="C84">
+        <v>-0.03075440474118493</v>
+      </c>
+      <c r="D84">
+        <v>0.004994660076084708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01664506674803047</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02818247156236256</v>
+      </c>
+      <c r="C85">
+        <v>-0.1270937955927668</v>
+      </c>
+      <c r="D85">
+        <v>0.0642130939189451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003679510547763064</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004933437587078355</v>
+      </c>
+      <c r="C86">
+        <v>-0.04794231411139901</v>
+      </c>
+      <c r="D86">
+        <v>0.02335058294804299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007397606881389544</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009269677207798451</v>
+      </c>
+      <c r="C87">
+        <v>-0.1199386884734378</v>
+      </c>
+      <c r="D87">
+        <v>0.08645476586481282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01481576861971111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003331682956121588</v>
+      </c>
+      <c r="C88">
+        <v>-0.07310033688726156</v>
+      </c>
+      <c r="D88">
+        <v>0.01873880744014093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01496579410749818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001896600327379986</v>
+      </c>
+      <c r="C89">
+        <v>-0.181106573014594</v>
+      </c>
+      <c r="D89">
+        <v>-0.3245064016695866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002129652932732497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007564764136580463</v>
+      </c>
+      <c r="C90">
+        <v>-0.1623525311318881</v>
+      </c>
+      <c r="D90">
+        <v>-0.3127494076113642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>4.204845444229572e-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.009523640277493892</v>
+      </c>
+      <c r="C91">
+        <v>-0.1020020696840854</v>
+      </c>
+      <c r="D91">
+        <v>0.02510018123687518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01865087779514549</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001132407498461362</v>
+      </c>
+      <c r="C92">
+        <v>-0.1698391096510732</v>
+      </c>
+      <c r="D92">
+        <v>-0.3129327105303059</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002471516152411778</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005181821433508283</v>
+      </c>
+      <c r="C93">
+        <v>-0.1451127133025542</v>
+      </c>
+      <c r="D93">
+        <v>-0.305753703431738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001884977548133465</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02156749544224004</v>
+      </c>
+      <c r="C94">
+        <v>-0.1561574103455487</v>
+      </c>
+      <c r="D94">
+        <v>0.04347820499049643</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006834445627627303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01608871214480623</v>
+      </c>
+      <c r="C95">
+        <v>-0.1191925036517094</v>
+      </c>
+      <c r="D95">
+        <v>0.06890194574031371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.003825378399958255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03158474787480103</v>
+      </c>
+      <c r="C97">
+        <v>-0.1618968209759497</v>
+      </c>
+      <c r="D97">
+        <v>0.05753080772729461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.008909223722198984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03534943347071189</v>
+      </c>
+      <c r="C98">
+        <v>-0.2586646290103116</v>
+      </c>
+      <c r="D98">
+        <v>0.0480404458589226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9790909311310733</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.98298583928816</v>
+      </c>
+      <c r="C99">
+        <v>0.102848633007073</v>
+      </c>
+      <c r="D99">
+        <v>-0.03788359204457045</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001940028268384487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003348395482927439</v>
+      </c>
+      <c r="C101">
+        <v>-0.04986098551420659</v>
+      </c>
+      <c r="D101">
+        <v>0.02460181618783045</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
